--- a/Benchmark-Models/Hass_PONE2017/Data/model1_data14.xlsx
+++ b/Benchmark-Models/Hass_PONE2017/Data/model1_data14.xlsx
@@ -282,16 +282,16 @@
         <v>15.0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25252375509251823</v>
+        <v>0.2525458916767404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.11634533003606803</v>
+        <v>0.11609779454007581</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2767517895504176</v>
+        <v>0.2766680118503714</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3078845262774378</v>
+        <v>0.3078484723532973</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
